--- a/tut05/output/0501EE18.xlsx
+++ b/tut05/output/0501EE18.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.122448979591837</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.409090909090908</v>
+        <v>8.41</v>
       </c>
       <c r="D6" t="n">
-        <v>8.108695652173912</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>7.804347826086956</v>
+        <v>7.8</v>
       </c>
       <c r="F6" t="n">
-        <v>8.153846153846153</v>
+        <v>8.15</v>
       </c>
       <c r="G6" t="n">
-        <v>7.125</v>
+        <v>7.12</v>
       </c>
       <c r="H6" t="n">
-        <v>8.674418604651162</v>
+        <v>8.67</v>
       </c>
       <c r="I6" t="n">
-        <v>9.210526315789474</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.122448979591837</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.258064516129032</v>
+        <v>8.26</v>
       </c>
       <c r="D8" t="n">
-        <v>8.208633093525179</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.108108108108109</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.116071428571429</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>7.965909090909091</v>
+        <v>7.97</v>
       </c>
       <c r="H8" t="n">
-        <v>8.06514657980456</v>
+        <v>8.07</v>
       </c>
       <c r="I8" t="n">
-        <v>8.191304347826087</v>
+        <v>8.19</v>
       </c>
     </row>
   </sheetData>
